--- a/Animal data.xlsx
+++ b/Animal data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MINH HUY\OneDrive\Hình ảnh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MINH HUY\OneDrive\Hình ảnh\group icon\item\sellable - hunt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7C1A2F-CD54-4923-AE28-8CA5A2DE6110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AFD4CD-7CF3-4271-AE77-703F4D13C970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="86">
   <si>
     <t>ANIMAL</t>
   </si>
@@ -254,6 +254,30 @@
   </si>
   <si>
     <t>&lt;:ITAWildturkey:1410872557829226628&gt;</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>BlackBear</t>
+  </si>
+  <si>
+    <t>WildTurkey</t>
+  </si>
+  <si>
+    <t>BrownBear</t>
+  </si>
+  <si>
+    <t>RedFox</t>
+  </si>
+  <si>
+    <t>WildBoar</t>
+  </si>
+  <si>
+    <t>PolarBear</t>
+  </si>
+  <si>
+    <t>HarpyEagle</t>
   </si>
 </sst>
 </file>
@@ -337,7 +361,7 @@
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -346,14 +370,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="\-"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="164" formatCode="\-"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -653,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -669,10 +686,11 @@
     <col min="9" max="11" width="12.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="8.796875" style="1"/>
     <col min="15" max="17" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.796875" style="1"/>
+    <col min="18" max="18" width="10.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -724,8 +742,11 @@
       <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -777,8 +798,11 @@
       <c r="Q2" s="1">
         <v>20.61</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -830,8 +854,11 @@
       <c r="Q3" s="1">
         <v>17.18</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -883,8 +910,11 @@
       <c r="Q4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -936,8 +966,11 @@
       <c r="Q5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -989,8 +1022,11 @@
       <c r="Q6" s="1">
         <v>22.08</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1042,8 +1078,11 @@
       <c r="Q7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -1095,8 +1134,11 @@
       <c r="Q8" s="1">
         <v>9.81</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1148,8 +1190,11 @@
       <c r="Q9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -1201,8 +1246,11 @@
       <c r="Q10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -1254,8 +1302,11 @@
       <c r="Q11" s="1">
         <v>11.04</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -1307,8 +1358,11 @@
       <c r="Q12" s="1">
         <v>4.42</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -1360,8 +1414,11 @@
       <c r="Q13" s="1">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -1413,8 +1470,11 @@
       <c r="Q14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R14" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -1466,8 +1526,11 @@
       <c r="Q15" s="1">
         <v>3.83</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R15" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -1519,8 +1582,11 @@
       <c r="Q16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R16" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -1572,8 +1638,11 @@
       <c r="Q17" s="1">
         <v>1.87</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R17" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -1625,8 +1694,11 @@
       <c r="Q18" s="1">
         <v>1.74</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R18" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
@@ -1678,8 +1750,11 @@
       <c r="Q19" s="1">
         <v>2.21</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -1731,8 +1806,11 @@
       <c r="Q20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R20" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
@@ -1784,8 +1862,11 @@
       <c r="Q21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R21" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -1837,8 +1918,11 @@
       <c r="Q22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R22" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>41</v>
       </c>
@@ -1890,8 +1974,11 @@
       <c r="Q23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R23" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
@@ -1943,8 +2030,11 @@
       <c r="Q24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R24" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>44</v>
       </c>
@@ -1996,8 +2086,11 @@
       <c r="Q25" s="1">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R25" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>45</v>
       </c>
@@ -2049,8 +2142,11 @@
       <c r="Q26" s="1">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R26" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
@@ -2102,8 +2198,11 @@
       <c r="Q27" s="1">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R27" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>48</v>
       </c>
@@ -2154,6 +2253,9 @@
       </c>
       <c r="Q28" s="1">
         <v>0.04</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Animal data.xlsx
+++ b/Animal data.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MINH HUY\OneDrive\Hình ảnh\group icon\item\sellable - hunt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AFD4CD-7CF3-4271-AE77-703F4D13C970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB1F4B6-A80C-4780-A6A5-4329DB833DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -672,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -760,7 +773,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="1">
-        <v>7</v>
+        <v>7000</v>
       </c>
       <c r="F2" s="1">
         <v>13.08</v>
@@ -816,7 +829,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="1">
-        <v>9</v>
+        <v>9000</v>
       </c>
       <c r="F3" s="1">
         <v>10.9</v>
@@ -872,7 +885,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="1">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="F4" s="1">
         <v>19.62</v>
@@ -928,7 +941,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="1">
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="F5" s="1">
         <v>16.350000000000001</v>
@@ -970,7 +983,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -984,7 +997,7 @@
         <v>14</v>
       </c>
       <c r="E6" s="1">
-        <v>7</v>
+        <v>7000</v>
       </c>
       <c r="F6" s="1">
         <v>14.02</v>
@@ -1026,7 +1039,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1040,7 +1053,7 @@
         <v>42</v>
       </c>
       <c r="E7" s="1">
-        <v>21</v>
+        <v>31500</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -1082,7 +1095,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -1096,7 +1109,7 @@
         <v>45</v>
       </c>
       <c r="E8" s="1">
-        <v>22</v>
+        <v>33000</v>
       </c>
       <c r="F8" s="1">
         <v>7.63</v>
@@ -1152,7 +1165,7 @@
         <v>40</v>
       </c>
       <c r="E9" s="1">
-        <v>20</v>
+        <v>30000</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -1208,7 +1221,7 @@
         <v>35</v>
       </c>
       <c r="E10" s="1">
-        <v>17</v>
+        <v>25500</v>
       </c>
       <c r="F10" s="1">
         <v>9.81</v>
@@ -1264,7 +1277,7 @@
         <v>40</v>
       </c>
       <c r="E11" s="1">
-        <v>20</v>
+        <v>30000</v>
       </c>
       <c r="F11" s="1">
         <v>8.58</v>
@@ -1320,7 +1333,7 @@
         <v>65</v>
       </c>
       <c r="E12" s="1">
-        <v>32</v>
+        <v>96000</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -1376,7 +1389,7 @@
         <v>70</v>
       </c>
       <c r="E13" s="1">
-        <v>35</v>
+        <v>105000</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -1432,7 +1445,7 @@
         <v>65</v>
       </c>
       <c r="E14" s="1">
-        <v>32</v>
+        <v>96000</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -1488,7 +1501,7 @@
         <v>75</v>
       </c>
       <c r="E15" s="1">
-        <v>37</v>
+        <v>111000</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -1544,7 +1557,7 @@
         <v>70</v>
       </c>
       <c r="E16" s="1">
-        <v>35</v>
+        <v>105000</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -1600,7 +1613,7 @@
         <v>130</v>
       </c>
       <c r="E17" s="1">
-        <v>65</v>
+        <v>325000</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -1656,7 +1669,7 @@
         <v>140</v>
       </c>
       <c r="E18" s="1">
-        <v>70</v>
+        <v>350000</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -1712,7 +1725,7 @@
         <v>110</v>
       </c>
       <c r="E19" s="1">
-        <v>55</v>
+        <v>275000</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -1768,7 +1781,7 @@
         <v>110</v>
       </c>
       <c r="E20" s="1">
-        <v>55</v>
+        <v>275000</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -1810,7 +1823,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
@@ -1824,7 +1837,7 @@
         <v>140</v>
       </c>
       <c r="E21" s="1">
-        <v>70</v>
+        <v>350000</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -1880,7 +1893,7 @@
         <v>120</v>
       </c>
       <c r="E22" s="1">
-        <v>60</v>
+        <v>300000</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -1936,7 +1949,7 @@
         <v>350</v>
       </c>
       <c r="E23" s="1">
-        <v>175</v>
+        <v>1400000</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -1978,7 +1991,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
@@ -1992,7 +2005,7 @@
         <v>250</v>
       </c>
       <c r="E24" s="1">
-        <v>125</v>
+        <v>1000000</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -2048,7 +2061,7 @@
         <v>300</v>
       </c>
       <c r="E25" s="1">
-        <v>150</v>
+        <v>1200000</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -2104,7 +2117,7 @@
         <v>800</v>
       </c>
       <c r="E26" s="1">
-        <v>400</v>
+        <v>5000000</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -2160,7 +2173,7 @@
         <v>700</v>
       </c>
       <c r="E27" s="1">
-        <v>350</v>
+        <v>4375000</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -2216,7 +2229,7 @@
         <v>1500</v>
       </c>
       <c r="E28" s="1">
-        <v>750</v>
+        <v>15000000</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
